--- a/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
+++ b/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC2247-D226-4E0B-B47F-F4E83D48CB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC6012-9056-401B-B051-3A324DDD65D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17271" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17271" uniqueCount="530">
   <si>
     <t>Test Case</t>
   </si>
@@ -3261,6 +3261,12 @@
   <si>
     <t>Calender</t>
   </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
 </sst>
 </file>
 
@@ -13280,8 +13286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381A8BD-60B5-4910-A80C-D73D38EE81B1}">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13371,7 +13377,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
@@ -13380,10 +13386,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -13448,7 +13454,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
@@ -13457,10 +13463,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
@@ -13525,7 +13531,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>36</v>
@@ -13534,10 +13540,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -13602,7 +13608,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>38</v>
@@ -13611,10 +13617,10 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -13679,7 +13685,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -13688,10 +13694,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>26</v>
@@ -13756,7 +13762,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>42</v>
@@ -13765,10 +13771,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>26</v>
@@ -13833,7 +13839,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>44</v>
@@ -13842,10 +13848,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -13910,7 +13916,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -13919,10 +13925,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -13987,7 +13993,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>48</v>
@@ -13996,10 +14002,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -14064,7 +14070,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>50</v>
@@ -14073,10 +14079,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -14141,7 +14147,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -14150,10 +14156,10 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -14218,7 +14224,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>54</v>
@@ -14227,10 +14233,10 @@
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -14295,7 +14301,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>56</v>
@@ -14304,10 +14310,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -14372,7 +14378,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>58</v>
@@ -14381,10 +14387,10 @@
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -14449,7 +14455,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>60</v>
@@ -14458,10 +14464,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -14526,7 +14532,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>62</v>
@@ -14535,10 +14541,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -14603,7 +14609,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>64</v>
@@ -14612,10 +14618,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -14680,7 +14686,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>66</v>
@@ -14689,10 +14695,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -14757,7 +14763,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>68</v>
@@ -14766,10 +14772,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -14834,7 +14840,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>70</v>
@@ -14843,10 +14849,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -14911,7 +14917,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>72</v>
@@ -14920,10 +14926,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
@@ -14988,7 +14994,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>74</v>
@@ -14997,10 +15003,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
@@ -15065,7 +15071,7 @@
         <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>76</v>
@@ -15074,10 +15080,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>26</v>
@@ -15142,7 +15148,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>78</v>
@@ -15151,10 +15157,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>26</v>
@@ -15219,7 +15225,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>80</v>
@@ -15228,10 +15234,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>30</v>
@@ -15296,7 +15302,7 @@
         <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>82</v>
@@ -15305,10 +15311,10 @@
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>30</v>
@@ -15373,7 +15379,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>84</v>
@@ -15382,10 +15388,10 @@
         <v>28</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>30</v>
@@ -15450,7 +15456,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>86</v>
@@ -15459,10 +15465,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>30</v>
@@ -15527,7 +15533,7 @@
         <v>125</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>88</v>
@@ -15536,10 +15542,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>30</v>
@@ -15604,7 +15610,7 @@
         <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>90</v>
@@ -15613,10 +15619,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>30</v>
@@ -15681,7 +15687,7 @@
         <v>129</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>92</v>
@@ -15690,10 +15696,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>30</v>
@@ -15758,7 +15764,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>94</v>
@@ -15767,10 +15773,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>30</v>
@@ -15835,7 +15841,7 @@
         <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>96</v>
@@ -15844,10 +15850,10 @@
         <v>28</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -15912,7 +15918,7 @@
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>98</v>
@@ -15921,10 +15927,10 @@
         <v>28</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>30</v>
@@ -15989,7 +15995,7 @@
         <v>137</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>100</v>
@@ -15998,10 +16004,10 @@
         <v>28</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>30</v>
@@ -16066,7 +16072,7 @@
         <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>102</v>
@@ -16075,10 +16081,10 @@
         <v>28</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>30</v>
@@ -16143,7 +16149,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>104</v>
@@ -16152,10 +16158,10 @@
         <v>28</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>30</v>
@@ -16220,7 +16226,7 @@
         <v>143</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>106</v>
@@ -16229,10 +16235,10 @@
         <v>28</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>30</v>
@@ -16297,7 +16303,7 @@
         <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>108</v>
@@ -16306,10 +16312,10 @@
         <v>28</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>30</v>
@@ -16374,7 +16380,7 @@
         <v>147</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>110</v>
@@ -16383,10 +16389,10 @@
         <v>28</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>30</v>
@@ -16451,7 +16457,7 @@
         <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>112</v>
@@ -16460,10 +16466,10 @@
         <v>28</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>30</v>
@@ -16528,7 +16534,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>114</v>
@@ -16537,10 +16543,10 @@
         <v>28</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>30</v>
@@ -16605,7 +16611,7 @@
         <v>153</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>116</v>
@@ -16614,10 +16620,10 @@
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>30</v>
@@ -16682,7 +16688,7 @@
         <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>118</v>
@@ -16691,10 +16697,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>30</v>
@@ -16759,7 +16765,7 @@
         <v>157</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>120</v>
@@ -16768,10 +16774,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>30</v>
@@ -16836,7 +16842,7 @@
         <v>159</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>122</v>
@@ -16845,10 +16851,10 @@
         <v>28</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>30</v>
@@ -16913,7 +16919,7 @@
         <v>161</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>124</v>
@@ -16922,10 +16928,10 @@
         <v>28</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>30</v>
@@ -16990,7 +16996,7 @@
         <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>126</v>
@@ -16999,10 +17005,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>30</v>
@@ -17067,7 +17073,7 @@
         <v>319</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>128</v>
@@ -17076,16 +17082,16 @@
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>30</v>
@@ -17144,7 +17150,7 @@
         <v>320</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>130</v>
@@ -17153,16 +17159,16 @@
         <v>28</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>30</v>
@@ -17221,7 +17227,7 @@
         <v>321</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>132</v>
@@ -17230,16 +17236,16 @@
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>30</v>
@@ -17298,7 +17304,7 @@
         <v>322</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>134</v>
@@ -17307,16 +17313,16 @@
         <v>28</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>30</v>
@@ -17375,7 +17381,7 @@
         <v>325</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>136</v>
@@ -17384,16 +17390,16 @@
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>30</v>
@@ -17452,7 +17458,7 @@
         <v>326</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>138</v>
@@ -17461,16 +17467,16 @@
         <v>28</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>30</v>
@@ -17529,7 +17535,7 @@
         <v>327</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>140</v>
@@ -17538,16 +17544,16 @@
         <v>28</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>30</v>
@@ -17606,7 +17612,7 @@
         <v>328</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>142</v>
@@ -17615,16 +17621,16 @@
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>30</v>
@@ -17683,7 +17689,7 @@
         <v>329</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>144</v>
@@ -17692,16 +17698,16 @@
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>30</v>
@@ -17760,7 +17766,7 @@
         <v>330</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>146</v>
@@ -17769,16 +17775,16 @@
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>30</v>
@@ -17837,7 +17843,7 @@
         <v>331</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>148</v>
@@ -17846,16 +17852,16 @@
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>30</v>
@@ -17914,7 +17920,7 @@
         <v>332</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>150</v>
@@ -17923,10 +17929,10 @@
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>26</v>
@@ -17991,7 +17997,7 @@
         <v>333</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>152</v>
@@ -18000,10 +18006,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>26</v>
@@ -18068,7 +18074,7 @@
         <v>334</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>154</v>
@@ -18077,16 +18083,16 @@
         <v>28</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I63" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>30</v>
@@ -18154,16 +18160,16 @@
         <v>28</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>30</v>
@@ -18231,16 +18237,16 @@
         <v>28</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I65" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>30</v>
@@ -18308,16 +18314,16 @@
         <v>28</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I66" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>30</v>
@@ -18385,16 +18391,16 @@
         <v>28</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I67" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>30</v>
@@ -18462,16 +18468,16 @@
         <v>28</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I68" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>30</v>
@@ -18539,16 +18545,16 @@
         <v>28</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I69" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>30</v>
@@ -18616,16 +18622,16 @@
         <v>28</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I70" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>30</v>
@@ -18693,16 +18699,16 @@
         <v>28</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I71" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>30</v>
@@ -18770,16 +18776,16 @@
         <v>28</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I72" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>30</v>
@@ -18847,16 +18853,16 @@
         <v>12</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I73" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>30</v>

--- a/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
+++ b/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC6012-9056-401B-B051-3A324DDD65D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F378B-F62C-4EDC-AE3D-26D2BE2DFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" r:id="rId1"/>
@@ -3699,10 +3699,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3799,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
@@ -3808,10 +3808,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -3876,7 +3876,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
@@ -3885,10 +3885,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
@@ -3953,7 +3953,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>27</v>
@@ -3962,10 +3962,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -4030,7 +4030,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
@@ -4039,10 +4039,10 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -4270,10 +4270,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -4347,10 +4347,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -4424,10 +4424,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -4501,10 +4501,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -4578,10 +4578,10 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -4655,10 +4655,10 @@
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -4732,10 +4732,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -4809,10 +4809,10 @@
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -4886,10 +4886,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -4963,10 +4963,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -5040,10 +5040,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -5117,10 +5117,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -5194,10 +5194,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -5271,10 +5271,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -5348,10 +5348,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
@@ -5425,10 +5425,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
@@ -5502,10 +5502,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>26</v>
@@ -5579,10 +5579,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>26</v>
@@ -5656,10 +5656,10 @@
         <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>26</v>
@@ -5733,10 +5733,10 @@
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>26</v>
@@ -6965,10 +6965,10 @@
         <v>12</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>30</v>
@@ -7042,10 +7042,10 @@
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>30</v>
@@ -7119,10 +7119,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>30</v>
@@ -7196,10 +7196,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>30</v>
@@ -7427,10 +7427,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>30</v>
@@ -7504,10 +7504,10 @@
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -7581,10 +7581,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>30</v>
@@ -7658,10 +7658,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>30</v>
@@ -7735,10 +7735,10 @@
         <v>28</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>30</v>
@@ -7812,10 +7812,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>30</v>
@@ -7889,10 +7889,10 @@
         <v>28</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>30</v>
@@ -7966,10 +7966,10 @@
         <v>28</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>30</v>
@@ -8043,10 +8043,10 @@
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>30</v>
@@ -8120,10 +8120,10 @@
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>30</v>
@@ -8197,10 +8197,10 @@
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>30</v>
@@ -8274,10 +8274,10 @@
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>30</v>
@@ -8351,10 +8351,10 @@
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>30</v>
@@ -8428,10 +8428,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>30</v>
@@ -8505,10 +8505,10 @@
         <v>28</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>30</v>
@@ -8582,10 +8582,10 @@
         <v>28</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>30</v>
@@ -8659,10 +8659,10 @@
         <v>28</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>30</v>
@@ -8736,10 +8736,10 @@
         <v>28</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -8813,10 +8813,10 @@
         <v>28</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>30</v>
@@ -8890,10 +8890,10 @@
         <v>28</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>30</v>
@@ -10122,10 +10122,10 @@
         <v>28</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>26</v>
@@ -10199,10 +10199,10 @@
         <v>28</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>26</v>
@@ -10276,10 +10276,10 @@
         <v>28</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>26</v>
@@ -10353,10 +10353,10 @@
         <v>28</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>26</v>
@@ -10584,10 +10584,10 @@
         <v>28</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>26</v>
@@ -10661,10 +10661,10 @@
         <v>28</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>26</v>
@@ -10738,10 +10738,10 @@
         <v>28</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>26</v>
@@ -10815,10 +10815,10 @@
         <v>28</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>26</v>
@@ -10892,10 +10892,10 @@
         <v>28</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>26</v>
@@ -10969,10 +10969,10 @@
         <v>28</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>26</v>
@@ -11046,10 +11046,10 @@
         <v>28</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>26</v>
@@ -11123,10 +11123,10 @@
         <v>28</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>26</v>
@@ -11200,10 +11200,10 @@
         <v>28</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>26</v>
@@ -11277,10 +11277,10 @@
         <v>28</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>26</v>
@@ -11354,10 +11354,10 @@
         <v>28</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>26</v>
@@ -11431,10 +11431,10 @@
         <v>28</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>26</v>
@@ -11508,10 +11508,10 @@
         <v>28</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>26</v>
@@ -11585,10 +11585,10 @@
         <v>28</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>26</v>
@@ -11662,10 +11662,10 @@
         <v>28</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>26</v>
@@ -11739,10 +11739,10 @@
         <v>28</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>26</v>
@@ -11816,10 +11816,10 @@
         <v>28</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>26</v>
@@ -11893,10 +11893,10 @@
         <v>28</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>26</v>
@@ -11970,10 +11970,10 @@
         <v>28</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>26</v>
@@ -12047,10 +12047,10 @@
         <v>28</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>26</v>
@@ -13286,8 +13286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381A8BD-60B5-4910-A80C-D73D38EE81B1}">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
+++ b/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F378B-F62C-4EDC-AE3D-26D2BE2DFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CCC9D9-ACD6-4F35-A7DC-A723EE605A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="768" windowWidth="22572" windowHeight="11844" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17271" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17271" uniqueCount="528">
   <si>
     <t>Test Case</t>
   </si>
@@ -3253,13 +3253,7 @@
     <t>august</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>Shameer240</t>
-  </si>
-  <si>
-    <t>Calender</t>
   </si>
   <si>
     <t>Financial</t>
@@ -3699,7 +3693,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
@@ -3808,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -3885,10 +3879,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
@@ -3962,10 +3956,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -4039,10 +4033,10 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -4270,10 +4264,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -4347,10 +4341,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -4424,10 +4418,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -4501,10 +4495,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -4578,10 +4572,10 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -4655,10 +4649,10 @@
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -4732,10 +4726,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -4809,10 +4803,10 @@
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -4886,10 +4880,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -4963,10 +4957,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -5040,10 +5034,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -5117,10 +5111,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -5194,10 +5188,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -5271,10 +5265,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -5348,10 +5342,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
@@ -5425,10 +5419,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
@@ -5502,10 +5496,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>26</v>
@@ -5579,10 +5573,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>26</v>
@@ -5656,10 +5650,10 @@
         <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>26</v>
@@ -5733,10 +5727,10 @@
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>26</v>
@@ -6965,10 +6959,10 @@
         <v>12</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>30</v>
@@ -7042,10 +7036,10 @@
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>30</v>
@@ -7119,10 +7113,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>30</v>
@@ -7196,10 +7190,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>30</v>
@@ -7427,10 +7421,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>30</v>
@@ -7504,10 +7498,10 @@
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -7581,10 +7575,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>30</v>
@@ -7658,10 +7652,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>30</v>
@@ -7735,10 +7729,10 @@
         <v>28</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>30</v>
@@ -7812,10 +7806,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>30</v>
@@ -7889,10 +7883,10 @@
         <v>28</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>30</v>
@@ -7966,10 +7960,10 @@
         <v>28</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>30</v>
@@ -8043,10 +8037,10 @@
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>30</v>
@@ -8120,10 +8114,10 @@
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>30</v>
@@ -8197,10 +8191,10 @@
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>30</v>
@@ -8274,10 +8268,10 @@
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>30</v>
@@ -8351,10 +8345,10 @@
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>30</v>
@@ -8428,10 +8422,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>30</v>
@@ -8505,10 +8499,10 @@
         <v>28</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>30</v>
@@ -8582,10 +8576,10 @@
         <v>28</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>30</v>
@@ -8659,10 +8653,10 @@
         <v>28</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>30</v>
@@ -8736,10 +8730,10 @@
         <v>28</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -8813,10 +8807,10 @@
         <v>28</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>30</v>
@@ -8890,10 +8884,10 @@
         <v>28</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>30</v>
@@ -10122,10 +10116,10 @@
         <v>28</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>26</v>
@@ -10199,10 +10193,10 @@
         <v>28</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>26</v>
@@ -10276,10 +10270,10 @@
         <v>28</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>26</v>
@@ -10353,10 +10347,10 @@
         <v>28</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>26</v>
@@ -10584,10 +10578,10 @@
         <v>28</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>26</v>
@@ -10661,10 +10655,10 @@
         <v>28</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>26</v>
@@ -10738,10 +10732,10 @@
         <v>28</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>26</v>
@@ -10815,10 +10809,10 @@
         <v>28</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>26</v>
@@ -10892,10 +10886,10 @@
         <v>28</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>26</v>
@@ -10969,10 +10963,10 @@
         <v>28</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>26</v>
@@ -11046,10 +11040,10 @@
         <v>28</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>26</v>
@@ -11123,10 +11117,10 @@
         <v>28</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>26</v>
@@ -11200,10 +11194,10 @@
         <v>28</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>26</v>
@@ -11277,10 +11271,10 @@
         <v>28</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>26</v>
@@ -11354,10 +11348,10 @@
         <v>28</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>26</v>
@@ -11431,10 +11425,10 @@
         <v>28</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>26</v>
@@ -11508,10 +11502,10 @@
         <v>28</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>26</v>
@@ -11585,10 +11579,10 @@
         <v>28</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>26</v>
@@ -11662,10 +11656,10 @@
         <v>28</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>26</v>
@@ -11739,10 +11733,10 @@
         <v>28</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>26</v>
@@ -11816,10 +11810,10 @@
         <v>28</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>26</v>
@@ -11893,10 +11887,10 @@
         <v>28</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>26</v>
@@ -11970,10 +11964,10 @@
         <v>28</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>26</v>
@@ -12047,10 +12041,10 @@
         <v>28</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>26</v>
@@ -13386,10 +13380,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -13463,10 +13457,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
@@ -13540,10 +13534,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -13617,10 +13611,10 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -13694,10 +13688,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>26</v>
@@ -13771,10 +13765,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>26</v>
@@ -13848,10 +13842,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -13925,10 +13919,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -14002,10 +13996,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -14079,10 +14073,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -14156,10 +14150,10 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -14233,10 +14227,10 @@
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -14310,10 +14304,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -14387,10 +14381,10 @@
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -14464,10 +14458,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -14541,10 +14535,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -14618,10 +14612,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -14695,10 +14689,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -14772,10 +14766,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -14849,10 +14843,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -14926,10 +14920,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
@@ -15003,10 +14997,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
@@ -15080,10 +15074,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>26</v>
@@ -15157,10 +15151,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>26</v>
@@ -15234,10 +15228,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>30</v>
@@ -15311,10 +15305,10 @@
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>30</v>
@@ -15388,10 +15382,10 @@
         <v>28</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>30</v>
@@ -15465,10 +15459,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>30</v>
@@ -15542,10 +15536,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>30</v>
@@ -15619,10 +15613,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>30</v>
@@ -15696,10 +15690,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>30</v>
@@ -15773,10 +15767,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>30</v>
@@ -15850,10 +15844,10 @@
         <v>28</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -15927,10 +15921,10 @@
         <v>28</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>30</v>
@@ -16004,10 +15998,10 @@
         <v>28</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>30</v>
@@ -16081,10 +16075,10 @@
         <v>28</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>30</v>
@@ -16158,10 +16152,10 @@
         <v>28</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>30</v>
@@ -16235,10 +16229,10 @@
         <v>28</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>30</v>
@@ -16312,10 +16306,10 @@
         <v>28</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>30</v>
@@ -16389,10 +16383,10 @@
         <v>28</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>30</v>
@@ -16466,10 +16460,10 @@
         <v>28</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>30</v>
@@ -16543,10 +16537,10 @@
         <v>28</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>30</v>
@@ -16620,10 +16614,10 @@
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>30</v>
@@ -16697,10 +16691,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>30</v>
@@ -16774,10 +16768,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>30</v>
@@ -16851,10 +16845,10 @@
         <v>28</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>30</v>
@@ -16928,10 +16922,10 @@
         <v>28</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>30</v>
@@ -17005,10 +16999,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>30</v>
@@ -17082,10 +17076,10 @@
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>26</v>
@@ -17159,10 +17153,10 @@
         <v>28</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>26</v>
@@ -17236,10 +17230,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>26</v>
@@ -17313,10 +17307,10 @@
         <v>28</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>26</v>
@@ -17390,10 +17384,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>26</v>
@@ -17467,10 +17461,10 @@
         <v>28</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>26</v>
@@ -17544,10 +17538,10 @@
         <v>28</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>26</v>
@@ -17621,10 +17615,10 @@
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>26</v>
@@ -17698,10 +17692,10 @@
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>26</v>
@@ -17775,10 +17769,10 @@
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>26</v>
@@ -17852,10 +17846,10 @@
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>26</v>
@@ -17929,10 +17923,10 @@
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>26</v>
@@ -18006,10 +18000,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>26</v>
@@ -18083,10 +18077,10 @@
         <v>28</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>26</v>
@@ -18160,10 +18154,10 @@
         <v>28</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>26</v>
@@ -18237,10 +18231,10 @@
         <v>28</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>26</v>
@@ -18314,10 +18308,10 @@
         <v>28</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>26</v>
@@ -18391,10 +18385,10 @@
         <v>28</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>26</v>
@@ -18468,10 +18462,10 @@
         <v>28</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>26</v>
@@ -18545,10 +18539,10 @@
         <v>28</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>26</v>
@@ -18622,10 +18616,10 @@
         <v>28</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>26</v>
@@ -18699,10 +18693,10 @@
         <v>28</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>26</v>
@@ -18776,10 +18770,10 @@
         <v>28</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>26</v>
@@ -18853,10 +18847,10 @@
         <v>12</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>26</v>
@@ -18925,10 +18919,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BCA36-20F2-4602-A911-B0E0FAE8F7A3}">
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19045,16 +19039,16 @@
         <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -19152,10 +19146,10 @@
         <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
@@ -19253,10 +19247,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -19354,10 +19348,10 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -19455,10 +19449,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>26</v>
@@ -19556,10 +19550,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>26</v>
@@ -19657,10 +19651,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -19758,10 +19752,10 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -19859,10 +19853,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -19960,10 +19954,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -20061,10 +20055,10 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -20162,10 +20156,10 @@
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -20263,10 +20257,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -20364,10 +20358,10 @@
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -20465,10 +20459,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -20566,10 +20560,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -20667,10 +20661,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -20768,10 +20762,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -20869,10 +20863,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -20970,10 +20964,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -21071,10 +21065,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>30</v>
@@ -21172,10 +21166,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>30</v>
@@ -21273,10 +21267,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>30</v>
@@ -21374,10 +21368,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>30</v>
@@ -21475,10 +21469,10 @@
         <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>30</v>
@@ -21576,10 +21570,10 @@
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>30</v>
@@ -21677,10 +21671,10 @@
         <v>28</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>30</v>
@@ -21778,10 +21772,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>30</v>
@@ -21879,10 +21873,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>30</v>
@@ -21980,10 +21974,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>30</v>
@@ -22081,10 +22075,10 @@
         <v>28</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>30</v>
@@ -22182,10 +22176,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>30</v>
@@ -22283,10 +22277,10 @@
         <v>28</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -22384,10 +22378,10 @@
         <v>28</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>30</v>
@@ -22485,10 +22479,10 @@
         <v>28</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>30</v>
@@ -22586,10 +22580,10 @@
         <v>28</v>
       </c>
       <c r="F37" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>30</v>
@@ -22687,10 +22681,10 @@
         <v>28</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>30</v>
@@ -22788,10 +22782,10 @@
         <v>28</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>30</v>
@@ -22889,10 +22883,10 @@
         <v>28</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>30</v>
@@ -22990,10 +22984,10 @@
         <v>28</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>30</v>
@@ -23091,10 +23085,10 @@
         <v>28</v>
       </c>
       <c r="F42" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>26</v>
@@ -23192,10 +23186,10 @@
         <v>28</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>26</v>
@@ -23293,10 +23287,10 @@
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>26</v>
@@ -23394,10 +23388,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>26</v>
@@ -23495,10 +23489,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>26</v>
@@ -23596,10 +23590,10 @@
         <v>28</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>26</v>
@@ -23697,10 +23691,10 @@
         <v>28</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>26</v>
@@ -23798,10 +23792,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>26</v>
@@ -23899,10 +23893,10 @@
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>26</v>
@@ -24000,10 +23994,10 @@
         <v>28</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>26</v>
@@ -24101,10 +24095,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>26</v>
@@ -24202,10 +24196,10 @@
         <v>28</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>26</v>
@@ -24303,10 +24297,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>26</v>
@@ -24404,10 +24398,10 @@
         <v>28</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>26</v>
@@ -24505,10 +24499,10 @@
         <v>28</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>26</v>
@@ -24606,10 +24600,10 @@
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>26</v>
@@ -24707,10 +24701,10 @@
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>26</v>
@@ -24808,10 +24802,10 @@
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>26</v>
@@ -24909,10 +24903,10 @@
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>26</v>
@@ -25010,10 +25004,10 @@
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>26</v>

--- a/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
+++ b/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CCC9D9-ACD6-4F35-A7DC-A723EE605A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816CF12-44CD-4B55-9321-4A437D94B2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="768" windowWidth="22572" windowHeight="11844" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" r:id="rId1"/>
@@ -3339,7 +3339,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3693,10 +3713,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3816,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>525</v>
       </c>
       <c r="E2" s="5">
         <v>12</v>
@@ -3873,7 +3893,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5">
         <v>12</v>
@@ -3950,7 +3970,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
@@ -4027,7 +4047,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>28</v>
@@ -4104,7 +4124,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
@@ -4181,7 +4201,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>28</v>
@@ -4258,7 +4278,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>28</v>
@@ -4335,7 +4355,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>28</v>
@@ -4412,7 +4432,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>28</v>
@@ -4489,7 +4509,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>28</v>
@@ -4566,7 +4586,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>28</v>
@@ -4643,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
@@ -4720,7 +4740,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -4797,7 +4817,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
@@ -4874,7 +4894,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
@@ -4951,7 +4971,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -5028,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -5105,7 +5125,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
@@ -5182,7 +5202,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
@@ -5259,7 +5279,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
@@ -5336,7 +5356,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
@@ -5413,7 +5433,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>28</v>
@@ -5490,7 +5510,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
@@ -5567,7 +5587,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
@@ -5644,7 +5664,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
@@ -5721,7 +5741,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>28</v>
@@ -5798,7 +5818,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>28</v>
@@ -5875,7 +5895,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>28</v>
@@ -5952,7 +5972,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>28</v>
@@ -6029,7 +6049,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>28</v>
@@ -6106,7 +6126,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>28</v>
@@ -6183,7 +6203,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>28</v>
@@ -6260,7 +6280,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>28</v>
@@ -6337,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>28</v>
@@ -6414,7 +6434,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>28</v>
@@ -6491,7 +6511,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>28</v>
@@ -6568,7 +6588,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>28</v>
@@ -6645,7 +6665,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>28</v>
@@ -6722,7 +6742,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>28</v>
@@ -6799,7 +6819,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>28</v>
@@ -6876,7 +6896,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>28</v>
@@ -6953,7 +6973,7 @@
         <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="E43" s="5">
         <v>12</v>
@@ -7030,7 +7050,7 @@
         <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>28</v>
@@ -7107,7 +7127,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>28</v>
@@ -7184,7 +7204,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>28</v>
@@ -7261,7 +7281,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>28</v>
@@ -7338,7 +7358,7 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>28</v>
@@ -7415,7 +7435,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>28</v>
@@ -7492,7 +7512,7 @@
         <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>28</v>
@@ -7569,7 +7589,7 @@
         <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="E51" s="5">
         <v>12</v>
@@ -7646,7 +7666,7 @@
         <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>28</v>
@@ -7723,7 +7743,7 @@
         <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>28</v>
@@ -7800,7 +7820,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>28</v>
@@ -7877,7 +7897,7 @@
         <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>28</v>
@@ -7954,7 +7974,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>28</v>
@@ -8031,7 +8051,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>28</v>
@@ -8108,7 +8128,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>28</v>
@@ -8185,7 +8205,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>28</v>
@@ -8262,7 +8282,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>28</v>
@@ -8339,7 +8359,7 @@
         <v>26</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
@@ -8416,7 +8436,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>28</v>
@@ -8493,7 +8513,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>28</v>
@@ -8570,7 +8590,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>28</v>
@@ -8647,7 +8667,7 @@
         <v>26</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>28</v>
@@ -8724,7 +8744,7 @@
         <v>26</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
@@ -8801,7 +8821,7 @@
         <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>28</v>
@@ -8878,7 +8898,7 @@
         <v>26</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>28</v>
@@ -8955,7 +8975,7 @@
         <v>30</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>28</v>
@@ -9032,7 +9052,7 @@
         <v>30</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>28</v>
@@ -9109,7 +9129,7 @@
         <v>30</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>28</v>
@@ -9186,7 +9206,7 @@
         <v>30</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>28</v>
@@ -9263,7 +9283,7 @@
         <v>30</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>28</v>
@@ -9340,7 +9360,7 @@
         <v>30</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>28</v>
@@ -9417,7 +9437,7 @@
         <v>30</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>28</v>
@@ -9494,7 +9514,7 @@
         <v>30</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>28</v>
@@ -9571,7 +9591,7 @@
         <v>30</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>28</v>
@@ -9648,7 +9668,7 @@
         <v>30</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>28</v>
@@ -9725,7 +9745,7 @@
         <v>30</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>28</v>
@@ -9802,7 +9822,7 @@
         <v>30</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>28</v>
@@ -9879,7 +9899,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>28</v>
@@ -9956,7 +9976,7 @@
         <v>30</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>28</v>
@@ -10033,7 +10053,7 @@
         <v>30</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>28</v>
@@ -10110,7 +10130,7 @@
         <v>26</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>28</v>
@@ -10187,7 +10207,7 @@
         <v>26</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>28</v>
@@ -10264,7 +10284,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>28</v>
@@ -10341,7 +10361,7 @@
         <v>26</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>28</v>
@@ -10418,7 +10438,7 @@
         <v>30</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>28</v>
@@ -10495,7 +10515,7 @@
         <v>30</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>28</v>
@@ -10572,7 +10592,7 @@
         <v>26</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>28</v>
@@ -10649,7 +10669,7 @@
         <v>26</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>28</v>
@@ -10726,7 +10746,7 @@
         <v>26</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>28</v>
@@ -10803,7 +10823,7 @@
         <v>26</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>28</v>
@@ -10880,7 +10900,7 @@
         <v>26</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>28</v>
@@ -10957,7 +10977,7 @@
         <v>26</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>28</v>
@@ -11034,7 +11054,7 @@
         <v>26</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>28</v>
@@ -11111,7 +11131,7 @@
         <v>26</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>28</v>
@@ -11188,7 +11208,7 @@
         <v>26</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>28</v>
@@ -11265,7 +11285,7 @@
         <v>26</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>28</v>
@@ -11342,7 +11362,7 @@
         <v>26</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>28</v>
@@ -11419,7 +11439,7 @@
         <v>26</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>28</v>
@@ -11496,7 +11516,7 @@
         <v>26</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>28</v>
@@ -11573,7 +11593,7 @@
         <v>26</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>28</v>
@@ -11650,7 +11670,7 @@
         <v>26</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>28</v>
@@ -11727,7 +11747,7 @@
         <v>26</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>28</v>
@@ -11804,7 +11824,7 @@
         <v>26</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>28</v>
@@ -11881,7 +11901,7 @@
         <v>26</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>28</v>
@@ -11958,7 +11978,7 @@
         <v>26</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>28</v>
@@ -12035,7 +12055,7 @@
         <v>26</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>28</v>
@@ -13264,8 +13284,14 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D109">
-    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="D104:D109">
+    <cfRule type="uniqueValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D103">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D61">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13280,8 +13306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381A8BD-60B5-4910-A80C-D73D38EE81B1}">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18909,7 +18935,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D73">
-    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18919,10 +18945,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BCA36-20F2-4602-A911-B0E0FAE8F7A3}">
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G61"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25092,7 +25118,7 @@
   <autoFilter ref="A1:AG61" xr:uid="{26916D6A-5A6C-4B92-A16A-8E58F73A9904}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D61">
-    <cfRule type="uniqueValues" dxfId="1" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25476,7 +25502,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:A73">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
+++ b/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816CF12-44CD-4B55-9321-4A437D94B2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459E59A-F81A-4FF8-8B09-06E09255156E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3713,10 +3713,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3813,7 +3813,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>525</v>
@@ -3890,7 +3890,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>42</v>
@@ -3967,7 +3967,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>44</v>
@@ -4044,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>46</v>
@@ -4275,7 +4275,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>52</v>
@@ -4352,7 +4352,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>54</v>
@@ -4583,7 +4583,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>60</v>
@@ -4660,7 +4660,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>62</v>
@@ -4737,7 +4737,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
@@ -4891,7 +4891,7 @@
         <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>68</v>
@@ -4968,7 +4968,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>70</v>
@@ -5045,7 +5045,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>72</v>
@@ -5122,7 +5122,7 @@
         <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>74</v>
@@ -5353,7 +5353,7 @@
         <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>88</v>
@@ -5430,7 +5430,7 @@
         <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>90</v>
@@ -5507,7 +5507,7 @@
         <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>92</v>
@@ -5738,7 +5738,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>98</v>
@@ -6970,7 +6970,7 @@
         <v>113</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>138</v>
@@ -7047,7 +7047,7 @@
         <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>140</v>
@@ -7124,7 +7124,7 @@
         <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>142</v>
@@ -7201,7 +7201,7 @@
         <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>144</v>
@@ -7432,7 +7432,7 @@
         <v>125</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>150</v>
@@ -7509,7 +7509,7 @@
         <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>152</v>
@@ -7740,7 +7740,7 @@
         <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>158</v>
@@ -7817,7 +7817,7 @@
         <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>160</v>
@@ -7894,7 +7894,7 @@
         <v>137</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>162</v>
@@ -7971,7 +7971,7 @@
         <v>139</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>164</v>
@@ -8048,7 +8048,7 @@
         <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>166</v>
@@ -8125,7 +8125,7 @@
         <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>168</v>
@@ -8202,7 +8202,7 @@
         <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>170</v>
@@ -8279,7 +8279,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>172</v>
@@ -8356,7 +8356,7 @@
         <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>174</v>
@@ -8510,7 +8510,7 @@
         <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>78</v>
@@ -8587,7 +8587,7 @@
         <v>155</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>88</v>
@@ -8664,7 +8664,7 @@
         <v>157</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>90</v>
@@ -8895,7 +8895,7 @@
         <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>96</v>
@@ -10127,7 +10127,7 @@
         <v>319</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>136</v>
@@ -10204,7 +10204,7 @@
         <v>320</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>138</v>
@@ -10281,7 +10281,7 @@
         <v>321</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>140</v>
@@ -10358,7 +10358,7 @@
         <v>322</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>142</v>
@@ -10589,7 +10589,7 @@
         <v>325</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>148</v>
@@ -10666,7 +10666,7 @@
         <v>326</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>150</v>
@@ -10974,7 +10974,7 @@
         <v>330</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>158</v>
@@ -11051,7 +11051,7 @@
         <v>331</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>160</v>
@@ -11282,7 +11282,7 @@
         <v>334</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>166</v>
@@ -11359,7 +11359,7 @@
         <v>335</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>168</v>
@@ -11436,7 +11436,7 @@
         <v>336</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>170</v>
@@ -11744,7 +11744,7 @@
         <v>340</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>178</v>
@@ -11821,7 +11821,7 @@
         <v>341</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>180</v>
@@ -12052,7 +12052,7 @@
         <v>344</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>186</v>
@@ -13288,10 +13288,10 @@
     <cfRule type="uniqueValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D103">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D61">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18935,7 +18935,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D73">
-    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25118,7 +25118,7 @@
   <autoFilter ref="A1:AG61" xr:uid="{26916D6A-5A6C-4B92-A16A-8E58F73A9904}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D61">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25502,7 +25502,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:A73">
-    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
